--- a/extensions/icdm2016/doc-Experiments/LocalHiddenVarsResiduals2.xlsx
+++ b/extensions/icdm2016/doc-Experiments/LocalHiddenVarsResiduals2.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30340" yWindow="1060" windowWidth="24480" windowHeight="13320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="7" r:id="rId1"/>
-    <sheet name="VAR01" sheetId="1" r:id="rId2"/>
-    <sheet name="VAR02" sheetId="2" r:id="rId3"/>
-    <sheet name="VAR03" sheetId="3" r:id="rId4"/>
-    <sheet name="VAR04" sheetId="4" r:id="rId5"/>
-    <sheet name="VAR07" sheetId="5" r:id="rId6"/>
-    <sheet name="VAR08" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
+    <sheet name="Variance-Residuals" sheetId="9" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="7" r:id="rId2"/>
+    <sheet name="VAR01" sheetId="1" r:id="rId3"/>
+    <sheet name="VAR02" sheetId="2" r:id="rId4"/>
+    <sheet name="VAR03" sheetId="3" r:id="rId5"/>
+    <sheet name="VAR04" sheetId="4" r:id="rId6"/>
+    <sheet name="VAR07" sheetId="5" r:id="rId7"/>
+    <sheet name="VAR08" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -183,8 +187,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -194,11 +200,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -223,1519 +231,129 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'VAR01'!$I$1</c:f>
-              <c:strCache>
+            <c:v>Var01</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR01'!$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>meanH-Var1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'VAR01'!$I$2:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
-                <c:pt idx="0">
-                  <c:v>12.3247520110475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.1885179277702</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.1121399620735</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.0585136930121</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.0094896857694</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.9697014235157</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.9340732030286</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.9030491061704</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.8662724542201</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.8211047387814</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.8236608025279</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.8354885222319</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.8205462074641</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.7919593656351</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.7499791973778</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.7103327159021</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.6799466231276</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.6659845188219</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.6593969756754</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.6320881360067</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.5943065621254</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.594816680989</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.5448676923203</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11.5178813134475</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11.4905488642914</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11.4857964630761</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11.4803827416652</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11.5098477344542</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11.5197592617401</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11.540437589935</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>11.5612222090439</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11.6009502193339</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11.6533450428883</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>11.645438053228</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11.6889692004008</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>11.7104702151712</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>11.6832250808323</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>11.681352948501</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>11.6724927948792</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11.7064640804066</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11.7623240444819</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>11.8305250421337</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>11.8876687514678</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>11.9753721780822</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>12.0700705789738</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12.1762059294342</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>12.4064303550677</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12.642201255805</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>12.8244325605477</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>13.0063132834065</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>13.0891026743555</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13.1294266385179</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>13.1777026478865</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>13.2100266426098</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>13.2644763985887</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>13.3881136485918</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>13.4275289162079</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>13.4739124601177</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>13.3988637112742</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>13.28097574004</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>13.148363246713</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>13.0681637129598</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>12.9176905740744</c:v>
+                  <c:v>0.414888824398705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'VAR02'!$I$1</c:f>
-              <c:strCache>
+            <c:v>Var02</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR02'!$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>meanH-Var2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'VAR02'!$I$2:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
-                <c:pt idx="0">
-                  <c:v>12.3123390853979</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.181718088274</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.1481592987092</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.9553925543211</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.8546225206011</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.0910144368457</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.1698311080193</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.4114682063409</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.2964440207238</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.1291744731975</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.4389728262428</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0820157215118</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.6610840609126</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.8829234741672</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.4664431036755</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.8589267469654</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.3780182414234</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.0975249242157</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.9084479139183</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.1177362794859</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.3690546459217</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.3964032521163</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12.4458574395568</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11.9699958523506</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11.585796155442</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11.4227639022231</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11.1009049786908</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10.8322863422753</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10.9299568883322</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11.2323831674231</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>11.7001422598427</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12.2082078245802</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13.1388136100754</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12.7180258104418</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12.3622079873589</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12.0807470027334</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>11.7337243792294</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12.198601462482</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12.1090999465188</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>12.7040059691313</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13.1711488519239</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>14.5996360494076</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>15.096627927046</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>14.7935323128197</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>14.2108650663938</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>14.0373002674587</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>13.3828354150122</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>13.4423250333526</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>14.4792514741264</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>15.8321609278069</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>15.7777552280348</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>15.441441097524</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>14.9302517368457</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>15.327151065236</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>14.7535157275543</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>16.3476409870995</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>16.5940180598662</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>18.5055216436794</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>17.4992623537917</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>17.6782972426632</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>16.5220176057178</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>16.1321301627079</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>15.1110934701524</c:v>
+                  <c:v>3.74271366955896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'VAR03'!$I$1</c:f>
-              <c:strCache>
+            <c:v>Var03</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR03'!$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>meanH-Var3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'VAR03'!$I$2:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
-                <c:pt idx="0">
-                  <c:v>12.3141240592434</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.1736582652692</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0871389474549</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.2396142463312</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.2106289576694</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.9028420747064</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.7341380998616</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.5333838834066</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.4825597646591</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.4637130538525</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.4178266971762</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.5531603175167</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.4231274862751</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.2664188148558</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13.0861678647248</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.7096450512911</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.3340655058648</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.3748998596284</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.2444879087846</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.5686209232664</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12.0378974863437</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.9428742256143</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.3325456467289</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12.1431020782435</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>13.0309773446343</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13.6505028610896</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14.3543914224384</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14.8114863307437</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14.3601719079459</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13.2494810140806</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12.4321175086068</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11.992295733298</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11.4982719348449</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12.6066416928757</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>13.7514628388225</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>14.5128882065389</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>15.0540011896152</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13.8370760997818</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>13.7043765944894</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>12.5385799424884</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11.8925089249646</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>10.8793126341137</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>11.1053155493768</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>11.5589535863873</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>12.2334785501555</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>11.9392050164649</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>11.8147742864271</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>11.162588924474</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10.0682010916075</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9.3662549384394</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9.691378253340289</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>10.4759043128835</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>10.8682141090272</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>10.0893004035274</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9.838238740453191</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.60643614042101</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>7.74519479854187</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6.94373811273899</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.31623317384977</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8.62270584888876</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9.79564516097067</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9.66135807723381</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>9.82858613620133</c:v>
+                  <c:v>2.93595633224774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'VAR04'!$I$1</c:f>
-              <c:strCache>
+            <c:v>Var04</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR04'!$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>meanH-Var4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'VAR04'!$I$2:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
-                <c:pt idx="0">
-                  <c:v>12.3083718692299</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.1620831888857</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0907227115242</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.106252591905</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.1683734474897</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.2942969852279</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.2903987678944</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.9372459428685</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.6098020407608</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.3176173593015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.2418968723394</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.1083436113087</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.1411533204566</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.3100677535486</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.8694701368526</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.4338508152058</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.9010684343004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.3653872824092</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.6758635864399</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.9328591160119</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10.1236184334024</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.47112330494611</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.98863359073078</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.78727087102467</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.937515084137759</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.29567831794047</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.72651001563854</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.82907958576185</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.711543745995639</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.310673046210569</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.67319976377528</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.28457901029188</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.98300685309522</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.11838548016935</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.70127428331325</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.43887654182793</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>10.505547649431</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10.7211552139706</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10.8599966616627</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10.2829878158072</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.7844472084325</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.37880964897674</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.34829492781806</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10.5514714989944</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11.9298336832256</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12.6911250076234</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>13.0411499921077</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12.0346891675376</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>11.0136843422211</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10.4031356408799</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9.98705255902291</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>11.1785033936686</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12.4478284696429</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12.7926062962387</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>12.3999732134294</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>11.1314767843112</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9.69824485624605</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8.55876209380075</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7.98555058998922</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8.38410561356431</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.89649056643551</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>8.98803001224603</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>8.31039574179877</c:v>
+                  <c:v>2.231110771752326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'VAR07'!$I$1</c:f>
-              <c:strCache>
+            <c:v>Var07</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR07'!$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>meanH-Var07</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'VAR07'!$I$2:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
-                <c:pt idx="0">
-                  <c:v>12.323108601269</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.1852529250307</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0877105339314</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.0130685566031</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.9586589084321</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.9118162599468</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.8665840611218</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.8366265717731</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.7910439663328</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.776546497088</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.7379030808743</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.7047500252366</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.6668695559499</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.6163976380479</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.607614216873</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.5887782758609</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.5856865754535</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.6290663240423</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.6484637544284</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.6875299950599</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.6507165768537</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.6005897752417</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.4682400839145</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11.3263678652859</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11.3664716169683</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11.5096953869327</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11.7099776635796</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11.9576119160732</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12.1966050637422</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.4407072738379</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12.6589995872893</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12.8381309508413</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>12.808770417317</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12.6955147592386</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12.7574806803976</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12.7979346153346</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12.7583217251361</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12.7405839451754</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12.7556746380365</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>12.8374709872302</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>12.9515795557494</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>13.1668173518909</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>13.4055156065253</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>13.7383395914394</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>14.2027708516452</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>14.7851856587387</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>15.3528534545702</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>15.8676115799541</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>16.3269749879213</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>16.7522787154119</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>16.9887030577462</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>17.2320147343169</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>17.5025864926095</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>17.9363446399603</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>18.2026654210874</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>18.4770038314062</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>18.6835042548529</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>18.9928142147098</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>19.0458980044277</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>19.2025336771232</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>19.0659916922085</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>19.2122260063455</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>18.7986816558312</c:v>
+                  <c:v>7.140736754931176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'VAR08'!$I$1</c:f>
-              <c:strCache>
+            <c:v>Var08</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR08'!$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>meanH-Var08</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'VAR08'!$I$2:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
-                <c:pt idx="0">
-                  <c:v>12.3142598651037</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.1769421816537</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0866654420318</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.0039673338092</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.916119600481</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.8615283684838</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.8054225414247</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.8193207211608</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.8260617827114</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.8576263296472</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.9510913328053</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0010684713882</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.9148730395863</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.8191958434216</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.6272234811177</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.5209419755854</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11.4109495773586</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.5073809049307</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.5778443847635</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.6912146241202</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.9674185688004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12.2331241783573</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12.6181423995837</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12.8787072726107</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12.8082839776539</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12.7570468189087</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12.4363764975539</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12.24728472873</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12.1131230273375</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.0796348434007</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12.2118964298615</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12.2628244628929</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>12.5405171294447</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12.5657648036644</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12.2306839671845</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>11.7820848455716</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>11.2068526228332</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10.9816339027834</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10.8067016295071</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10.9213069898218</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11.1134205608639</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>11.3470925952849</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>11.3235381510514</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>11.1904348205954</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>10.8598876062315</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>10.7136061362503</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>10.5328111352845</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>10.4824536829441</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>10.493842793597</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10.5770513562412</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10.4116774933406</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>10.1350174421189</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>9.74413510426254</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9.5497069107796</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9.44561234105956</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.68978051374873</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9.96295190465472</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>10.1722508563369</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9.96841585689372</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9.33622822906749</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.53797895734029</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>8.1188898472445</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7.63907841863236</c:v>
+                  <c:v>1.339701220998626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>SUMA</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet7!$A$2:$A$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
-                <c:pt idx="0">
-                  <c:v>12.31615924854857</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.17802876281391</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.10208948262083</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.06280149599695</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.01964885340712</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.00519992478772</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.96674129689173</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.90684907195338</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.812030671568</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.72763040864469</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.76855860199432</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.71413777819898</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.7712756117741</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.7811604816127</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.90114966677023</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11.97041259680178</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.04828915958805</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.9400406356747</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.78575075400168</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.60500817899183</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11.45716871224122</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.37315523621078</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.39971447547249</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11.43722087549381</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11.53659884052128</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11.68691395836178</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11.80142388659441</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11.86459943967304</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11.80519331584892</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11.64221948914798</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>11.53959629306991</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>11.53116470020636</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11.60378749794425</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>11.72496176660298</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11.91534649291292</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12.05383357119627</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12.15694544117953</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12.02673392878237</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>11.98472371084895</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>11.83180263081425</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>11.77923819106937</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>11.86703222030126</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>12.0278268188809</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>12.30135066471973</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>12.58448438943757</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12.72377133599503</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>12.7551424397449</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12.60531160734457</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>12.5343978750035</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12.65619914369763</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>12.65761154430672</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>12.9320512698383</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>13.1117864267124</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>13.15085599305863</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>12.98408030702876</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>12.9400753175964</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>12.68524046506161</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>12.77449989689726</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>12.70237061503772</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>12.75080772522449</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>12.66108120489763</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>12.53013296978959</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>12.10092099944841</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1745,13 +363,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2112083384"/>
-        <c:axId val="-2112301848"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2135417448"/>
+        <c:axId val="-2135126024"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-2112083384"/>
+        <c:axId val="-2135417448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,7 +377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112301848"/>
+        <c:crossAx val="-2135126024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1768,10 +385,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112301848"/>
+        <c:axId val="-2135126024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45.0"/>
+          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1780,7 +397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112083384"/>
+        <c:crossAx val="-2135417448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1822,11 +439,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR04'!$A$1</c:f>
+              <c:f>'VAR01'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR04realMean_c0</c:v>
+                  <c:v>meanH-Var1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1836,198 +453,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR04'!$A$2:$A$64</c:f>
+              <c:f>'VAR01'!$I$2:$I$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>-4.82666130276204</c:v>
+                  <c:v>12.3247520110475</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.4437252615643</c:v>
+                  <c:v>12.1885179277702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-25.3339692114196</c:v>
+                  <c:v>12.1121399620735</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-109.096406181976</c:v>
+                  <c:v>12.0585136930121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-160.517710394507</c:v>
+                  <c:v>12.0094896857694</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-192.135920563209</c:v>
+                  <c:v>11.9697014235157</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-119.844643807593</c:v>
+                  <c:v>11.9340732030286</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>121.741277844123</c:v>
+                  <c:v>11.9030491061704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>153.504686791659</c:v>
+                  <c:v>11.8662724542201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>226.110348282849</c:v>
+                  <c:v>11.8211047387814</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76.7784296099678</c:v>
+                  <c:v>11.8236608025279</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>121.884752169142</c:v>
+                  <c:v>11.8354885222319</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.9912394356057</c:v>
+                  <c:v>11.8205462074641</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-93.907810066441</c:v>
+                  <c:v>11.7919593656351</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-308.574308319685</c:v>
+                  <c:v>11.7499791973778</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-320.871505759873</c:v>
+                  <c:v>11.7103327159021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-294.272715354776</c:v>
+                  <c:v>11.6799466231276</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>109.34752325129</c:v>
+                  <c:v>11.6659845188219</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>242.122273919152</c:v>
+                  <c:v>11.6593969756754</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>343.798047692866</c:v>
+                  <c:v>11.6320881360067</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>509.560782202352</c:v>
+                  <c:v>11.5943065621254</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>528.987086078544</c:v>
+                  <c:v>11.594816680989</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>545.126298814911</c:v>
+                  <c:v>11.5448676923203</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>351.909898940424</c:v>
+                  <c:v>11.5178813134475</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43.9069924852776</c:v>
+                  <c:v>11.4905488642914</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-141.5604629914</c:v>
+                  <c:v>11.4857964630761</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-170.785982256575</c:v>
+                  <c:v>11.4803827416652</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>39.1170451332749</c:v>
+                  <c:v>11.5098477344542</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>165.01680665128</c:v>
+                  <c:v>11.5197592617401</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>407.064382854486</c:v>
+                  <c:v>11.540437589935</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>638.342085052787</c:v>
+                  <c:v>11.5612222090439</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>564.874626659</c:v>
+                  <c:v>11.6009502193339</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>576.361139472128</c:v>
+                  <c:v>11.6533450428883</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>147.172528377889</c:v>
+                  <c:v>11.645438053228</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-250.657035928896</c:v>
+                  <c:v>11.6889692004008</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-348.83006639292</c:v>
+                  <c:v>11.7104702151712</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-468.802796790691</c:v>
+                  <c:v>11.6832250808323</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-18.556659195686</c:v>
+                  <c:v>11.681352948501</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20.5682790032322</c:v>
+                  <c:v>11.6724927948792</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>381.402522824471</c:v>
+                  <c:v>11.7064640804066</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>396.424708573713</c:v>
+                  <c:v>11.7623240444819</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>401.725644255482</c:v>
+                  <c:v>11.8305250421337</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>124.411739837033</c:v>
+                  <c:v>11.8876687514678</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-483.445825383933</c:v>
+                  <c:v>11.9753721780822</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-500.216020546666</c:v>
+                  <c:v>12.0700705789738</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-228.625937652739</c:v>
+                  <c:v>12.1762059294342</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-88.5713660349444</c:v>
+                  <c:v>12.4064303550677</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>447.996713591485</c:v>
+                  <c:v>12.642201255805</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>529.004609135941</c:v>
+                  <c:v>12.8244325605477</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>382.327689021599</c:v>
+                  <c:v>13.0063132834065</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>303.190165404535</c:v>
+                  <c:v>13.0891026743555</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-431.077347599662</c:v>
+                  <c:v>13.1294266385179</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-441.272729201555</c:v>
+                  <c:v>13.1777026478865</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-88.88900499364991</c:v>
+                  <c:v>13.2100266426098</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>194.45352859602</c:v>
+                  <c:v>13.2644763985887</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>667.141686652549</c:v>
+                  <c:v>13.3881136485918</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>882.406689719823</c:v>
+                  <c:v>13.4275289162079</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>885.8566637442181</c:v>
+                  <c:v>13.4739124601177</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>509.325806782992</c:v>
+                  <c:v>13.3988637112742</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-74.5337415871344</c:v>
+                  <c:v>13.28097574004</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-131.803682139174</c:v>
+                  <c:v>13.148363246713</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>127.725860173136</c:v>
+                  <c:v>13.0681637129598</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>577.577900564293</c:v>
+                  <c:v>12.9176905740744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,11 +656,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR04'!$B$1</c:f>
+              <c:f>'VAR02'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR04learntMean_c0</c:v>
+                  <c:v>meanH-Var2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2053,198 +670,1275 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR04'!$B$2:$B$64</c:f>
+              <c:f>'VAR02'!$I$2:$I$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>-15.7029136645459</c:v>
+                  <c:v>12.3123390853979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.87311945536089</c:v>
+                  <c:v>12.181718088274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.88203148045171</c:v>
+                  <c:v>12.1481592987092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-51.4076502392359</c:v>
+                  <c:v>11.9553925543211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-90.4345816370294</c:v>
+                  <c:v>11.8546225206011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-122.928630073563</c:v>
+                  <c:v>12.0910144368457</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-121.74567779666</c:v>
+                  <c:v>12.1698311080193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-59.1710356038801</c:v>
+                  <c:v>12.4114682063409</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-11.0204032062898</c:v>
+                  <c:v>12.2964440207238</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.1126273673686</c:v>
+                  <c:v>12.1291744731975</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.7641722059946</c:v>
+                  <c:v>12.4389728262428</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.0681404693488</c:v>
+                  <c:v>12.0820157215118</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.9401123215117</c:v>
+                  <c:v>12.6610840609126</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.8156873883789</c:v>
+                  <c:v>11.8829234741672</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-22.471438436074</c:v>
+                  <c:v>11.4664431036755</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-68.3768457485768</c:v>
+                  <c:v>11.8589267469654</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-103.417357677113</c:v>
+                  <c:v>11.3780182414234</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-70.6648126824082</c:v>
+                  <c:v>11.0975249242157</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-28.078448879245</c:v>
+                  <c:v>10.9084479139183</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.2220672650255</c:v>
+                  <c:v>11.1177362794859</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>68.58153933877649</c:v>
+                  <c:v>11.3690546459217</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110.732159492612</c:v>
+                  <c:v>11.3964032521163</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>146.434430583508</c:v>
+                  <c:v>12.4458574395568</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>161.791150822947</c:v>
+                  <c:v>11.9699958523506</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>152.994040751186</c:v>
+                  <c:v>11.585796155442</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>131.313181016127</c:v>
+                  <c:v>11.4227639022231</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>108.55619994652</c:v>
+                  <c:v>11.1009049786908</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>103.334879310754</c:v>
+                  <c:v>10.8322863422753</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>108.055814349782</c:v>
+                  <c:v>10.9299568883322</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>128.695272749098</c:v>
+                  <c:v>11.2323831674231</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>159.611147478597</c:v>
+                  <c:v>11.7001422598427</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>181.61843208062</c:v>
+                  <c:v>12.2082078245802</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>201.27279270745</c:v>
+                  <c:v>13.1388136100754</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>198.402462234214</c:v>
+                  <c:v>12.7180258104418</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>175.248111388292</c:v>
+                  <c:v>12.3622079873589</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>147.068914268835</c:v>
+                  <c:v>12.0807470027334</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>109.774544867685</c:v>
+                  <c:v>11.7337243792294</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>101.834868435966</c:v>
+                  <c:v>12.198601462482</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>96.89594856302141</c:v>
+                  <c:v>12.1090999465188</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>113.979126395361</c:v>
+                  <c:v>12.7040059691313</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>129.154218596716</c:v>
+                  <c:v>13.1711488519239</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>142.438388924245</c:v>
+                  <c:v>14.5996360494076</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>141.956756558464</c:v>
+                  <c:v>15.096627927046</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>108.57473651672</c:v>
+                  <c:v>14.7935323128197</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>70.89852132815111</c:v>
+                  <c:v>14.2108650663938</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>49.9545739943599</c:v>
+                  <c:v>14.0373002674587</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>39.9551521172296</c:v>
+                  <c:v>13.3828354150122</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>67.637244471896</c:v>
+                  <c:v>13.4423250333526</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>94.9004638885948</c:v>
+                  <c:v>14.4792514741264</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>110.473922403924</c:v>
+                  <c:v>15.8321609278069</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>120.200404682979</c:v>
+                  <c:v>15.7777552280348</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>90.86419774466</c:v>
+                  <c:v>15.441441097524</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>58.626151605649</c:v>
+                  <c:v>14.9302517368457</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>49.3223071285251</c:v>
+                  <c:v>15.327151065236</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>58.7498792794674</c:v>
+                  <c:v>14.7535157275543</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>91.5433624042768</c:v>
+                  <c:v>16.3476409870995</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>127.043072126109</c:v>
+                  <c:v>16.5940180598662</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>155.233174340499</c:v>
+                  <c:v>18.5055216436794</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>167.311371882982</c:v>
+                  <c:v>17.4992623537917</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>159.045457338393</c:v>
+                  <c:v>17.6782972426632</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>148.71383095204</c:v>
+                  <c:v>16.5220176057178</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>147.658834029143</c:v>
+                  <c:v>16.1321301627079</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>161.779297913414</c:v>
+                  <c:v>15.1110934701524</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR03'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanH-Var3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR03'!$I$2:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>12.3141240592434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.1736582652692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0871389474549</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.2396142463312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.2106289576694</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.9028420747064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.7341380998616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.5333838834066</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.4825597646591</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.4637130538525</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.4178266971762</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.5531603175167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.4231274862751</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.2664188148558</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.0861678647248</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.7096450512911</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.3340655058648</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.3748998596284</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.2444879087846</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.5686209232664</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.0378974863437</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.9428742256143</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.3325456467289</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.1431020782435</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.0309773446343</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.6505028610896</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.3543914224384</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.8114863307437</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.3601719079459</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.2494810140806</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.4321175086068</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.992295733298</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.4982719348449</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.6066416928757</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.7514628388225</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.5128882065389</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.0540011896152</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.8370760997818</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.7043765944894</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.5385799424884</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.8925089249646</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.8793126341137</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.1053155493768</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.5589535863873</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.2334785501555</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.9392050164649</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.8147742864271</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.162588924474</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.0682010916075</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.3662549384394</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.691378253340289</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.4759043128835</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.8682141090272</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10.0893004035274</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.838238740453191</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.60643614042101</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.74519479854187</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.94373811273899</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.31623317384977</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.62270584888876</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.79564516097067</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.66135807723381</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.82858613620133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR04'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanH-Var4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR04'!$I$2:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>12.3083718692299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.1620831888857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0907227115242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.106252591905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.1683734474897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.2942969852279</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.2903987678944</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.9372459428685</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.6098020407608</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.3176173593015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.2418968723394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.1083436113087</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.1411533204566</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.3100677535486</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.8694701368526</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.4338508152058</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.9010684343004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.3653872824092</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.6758635864399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.9328591160119</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.1236184334024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.47112330494611</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.98863359073078</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.78727087102467</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.937515084137759</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.29567831794047</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.72651001563854</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.82907958576185</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.711543745995639</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.310673046210569</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.67319976377528</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.28457901029188</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.98300685309522</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.11838548016935</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.70127428331325</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.43887654182793</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.505547649431</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.7211552139706</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.8599966616627</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.2829878158072</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.7844472084325</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.37880964897674</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.34829492781806</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.5514714989944</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.9298336832256</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.6911250076234</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.0411499921077</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.0346891675376</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.0136843422211</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.4031356408799</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.98705255902291</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.1785033936686</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.4478284696429</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.7926062962387</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12.3999732134294</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.1314767843112</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.69824485624605</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.55876209380075</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.98555058998922</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.38410561356431</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.89649056643551</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.98803001224603</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.31039574179877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR07'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanH-Var07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR07'!$I$2:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>12.323108601269</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.1852529250307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0877105339314</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0130685566031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.9586589084321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.9118162599468</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.8665840611218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.8366265717731</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.7910439663328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.776546497088</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.7379030808743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.7047500252366</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.6668695559499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.6163976380479</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.607614216873</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.5887782758609</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.5856865754535</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.6290663240423</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.6484637544284</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.6875299950599</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.6507165768537</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.6005897752417</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.4682400839145</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.3263678652859</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.3664716169683</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.5096953869327</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.7099776635796</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.9576119160732</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.1966050637422</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.4407072738379</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.6589995872893</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.8381309508413</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.808770417317</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.6955147592386</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.7574806803976</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.7979346153346</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.7583217251361</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.7405839451754</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.7556746380365</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.8374709872302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.9515795557494</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.1668173518909</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.4055156065253</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.7383395914394</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.2027708516452</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.7851856587387</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.3528534545702</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.8676115799541</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.3269749879213</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.7522787154119</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.9887030577462</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17.2320147343169</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.5025864926095</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>17.9363446399603</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18.2026654210874</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.4770038314062</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18.6835042548529</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18.9928142147098</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.0458980044277</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19.2025336771232</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.0659916922085</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19.2122260063455</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18.7986816558312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR08'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanH-Var08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR08'!$I$2:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>12.3142598651037</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.1769421816537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0866654420318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0039673338092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.916119600481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.8615283684838</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.8054225414247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.8193207211608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.8260617827114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.8576263296472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.9510913328053</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0010684713882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.9148730395863</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.8191958434216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.6272234811177</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.5209419755854</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.4109495773586</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.5073809049307</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.5778443847635</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.6912146241202</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.9674185688004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.2331241783573</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.6181423995837</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.8787072726107</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.8082839776539</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.7570468189087</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.4363764975539</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.24728472873</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.1131230273375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.0796348434007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.2118964298615</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.2628244628929</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.5405171294447</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5657648036644</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.2306839671845</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.7820848455716</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.2068526228332</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.9816339027834</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.8067016295071</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.9213069898218</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.1134205608639</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.3470925952849</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.3235381510514</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.1904348205954</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.8598876062315</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.7136061362503</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.5328111352845</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.4824536829441</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.493842793597</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.5770513562412</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.4116774933406</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.1350174421189</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.74413510426254</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.5497069107796</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.44561234105956</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.68978051374873</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.96295190465472</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.1722508563369</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.96841585689372</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.33622822906749</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.53797895734029</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.1188898472445</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.63907841863236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>SUMA</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$A$2:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>12.31615924854857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.17802876281391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.10208948262083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.06280149599695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.01964885340712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.00519992478772</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.96674129689173</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.90684907195338</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.812030671568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.72763040864469</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.76855860199432</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.71413777819898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.7712756117741</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.7811604816127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.90114966677023</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.97041259680178</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.04828915958805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.9400406356747</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.78575075400168</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.60500817899183</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.45716871224122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.37315523621078</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.39971447547249</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.43722087549381</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.53659884052128</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.68691395836178</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.80142388659441</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.86459943967304</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.80519331584892</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.64221948914798</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.53959629306991</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.53116470020636</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.60378749794425</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.72496176660298</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.91534649291292</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.05383357119627</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.15694544117953</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.02673392878237</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.98472371084895</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.83180263081425</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.77923819106937</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.86703222030126</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.0278268188809</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.30135066471973</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.58448438943757</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.72377133599503</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.7551424397449</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.60531160734457</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.5343978750035</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.65619914369763</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.65761154430672</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.9320512698383</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.1117864267124</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.15085599305863</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12.98408030702876</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.9400753175964</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>12.68524046506161</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.77449989689726</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12.70237061503772</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.75080772522449</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.66108120489763</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12.53013296978959</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.10092099944841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,11 +1955,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2110848024"/>
-        <c:axId val="2126821112"/>
+        <c:axId val="-2120631992"/>
+        <c:axId val="-2103435064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2110848024"/>
+        <c:axId val="-2120631992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,7 +1968,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126821112"/>
+        <c:crossAx val="-2103435064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2282,9 +1976,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126821112"/>
+        <c:axId val="-2103435064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="45.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2293,7 +1988,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110848024"/>
+        <c:crossAx val="-2120631992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2307,11 +2002,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2340,11 +2030,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR04'!$E$1</c:f>
+              <c:f>'VAR04'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR04realMean_c1</c:v>
+                  <c:v>VAR04realMean_c0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2354,198 +2044,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR04'!$E$2:$E$64</c:f>
+              <c:f>'VAR04'!$A$2:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>16.178566479405</c:v>
+                  <c:v>-4.82666130276204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.20962241574697</c:v>
+                  <c:v>13.4437252615643</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-14.6474662896721</c:v>
+                  <c:v>-25.3339692114196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-39.5346450947607</c:v>
+                  <c:v>-109.096406181976</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>283.920864937638</c:v>
+                  <c:v>-160.517710394507</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-397.578169973339</c:v>
+                  <c:v>-192.135920563209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-446.482426163617</c:v>
+                  <c:v>-119.844643807593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-201.47242188527</c:v>
+                  <c:v>121.741277844123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>147.41412858519</c:v>
+                  <c:v>153.504686791659</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-83.60666033592349</c:v>
+                  <c:v>226.110348282849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-72.181977717858</c:v>
+                  <c:v>76.7784296099678</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.703358393626</c:v>
+                  <c:v>121.884752169142</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-66.26910123575431</c:v>
+                  <c:v>9.9912394356057</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-18.6998856997139</c:v>
+                  <c:v>-93.907810066441</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.4103192353931</c:v>
+                  <c:v>-308.574308319685</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>128.317808889076</c:v>
+                  <c:v>-320.871505759873</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>165.843649611841</c:v>
+                  <c:v>-294.272715354776</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>227.245527827214</c:v>
+                  <c:v>109.34752325129</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>201.165304332543</c:v>
+                  <c:v>242.122273919152</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>209.310050117643</c:v>
+                  <c:v>343.798047692866</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>214.734697751248</c:v>
+                  <c:v>509.560782202352</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>326.43813759815</c:v>
+                  <c:v>528.987086078544</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30.3565954398313</c:v>
+                  <c:v>545.126298814911</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-9.84709592795536</c:v>
+                  <c:v>351.909898940424</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-70.7648755053132</c:v>
+                  <c:v>43.9069924852776</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>210.97034381325</c:v>
+                  <c:v>-141.5604629914</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>250.592942713524</c:v>
+                  <c:v>-170.785982256575</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>73.94863709338139</c:v>
+                  <c:v>39.1170451332749</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>114.0936314499</c:v>
+                  <c:v>165.01680665128</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-161.873324784874</c:v>
+                  <c:v>407.064382854486</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>185.986666396321</c:v>
+                  <c:v>638.342085052787</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-33.9017749619803</c:v>
+                  <c:v>564.874626659</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-28.7769845013585</c:v>
+                  <c:v>576.361139472128</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-241.777370442201</c:v>
+                  <c:v>147.172528377889</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-166.757243107438</c:v>
+                  <c:v>-250.657035928896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.15572367478595</c:v>
+                  <c:v>-348.83006639292</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>146.342330363248</c:v>
+                  <c:v>-468.802796790691</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>51.3452997511035</c:v>
+                  <c:v>-18.556659195686</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>24.6342834123942</c:v>
+                  <c:v>20.5682790032322</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>169.634882825853</c:v>
+                  <c:v>381.402522824471</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>94.7750909334854</c:v>
+                  <c:v>396.424708573713</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-11.7620298991867</c:v>
+                  <c:v>401.725644255482</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>148.397083802333</c:v>
+                  <c:v>124.411739837033</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.44616185478842</c:v>
+                  <c:v>-483.445825383933</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-27.9204814712035</c:v>
+                  <c:v>-500.216020546666</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-66.719401400273</c:v>
+                  <c:v>-228.625937652739</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-25.22497852179</c:v>
+                  <c:v>-88.5713660349444</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>51.6820690191958</c:v>
+                  <c:v>447.996713591485</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>54.1780469639811</c:v>
+                  <c:v>529.004609135941</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42.6722410233077</c:v>
+                  <c:v>382.327689021599</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>96.4940560790474</c:v>
+                  <c:v>303.190165404535</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>47.507997405625</c:v>
+                  <c:v>-431.077347599662</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>77.3882263636186</c:v>
+                  <c:v>-441.272729201555</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43.1305338528359</c:v>
+                  <c:v>-88.88900499364991</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>50.5509869507235</c:v>
+                  <c:v>194.45352859602</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-99.4957313838899</c:v>
+                  <c:v>667.141686652549</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-69.4021743066268</c:v>
+                  <c:v>882.406689719823</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-96.7159267992289</c:v>
+                  <c:v>885.8566637442181</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>108.581873256237</c:v>
+                  <c:v>509.325806782992</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>17.4215469159164</c:v>
+                  <c:v>-74.5337415871344</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-13.4510568620553</c:v>
+                  <c:v>-131.803682139174</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-45.939896780789</c:v>
+                  <c:v>127.725860173136</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>53.8412059526497</c:v>
+                  <c:v>577.577900564293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2557,11 +2247,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR04'!$F$1</c:f>
+              <c:f>'VAR04'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR04learntMean_c1</c:v>
+                  <c:v>VAR04learntMean_c0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2571,198 +2261,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR04'!$F$2:$F$64</c:f>
+              <c:f>'VAR04'!$B$2:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>2.73669247163201</c:v>
+                  <c:v>-15.7029136645459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.06580759684919</c:v>
+                  <c:v>5.87311945536089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.64808193367881</c:v>
+                  <c:v>-9.88203148045171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-18.1254158591238</c:v>
+                  <c:v>-51.4076502392359</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.5856030698082</c:v>
+                  <c:v>-90.4345816370294</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-39.8283514747492</c:v>
+                  <c:v>-122.928630073563</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-104.190512422538</c:v>
+                  <c:v>-121.74567779666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-116.010849514161</c:v>
+                  <c:v>-59.1710356038801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-68.0641796699421</c:v>
+                  <c:v>-11.0204032062898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-66.5500934545298</c:v>
+                  <c:v>36.1126273673686</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-66.1877993621062</c:v>
+                  <c:v>43.7641722059946</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-48.116898145919</c:v>
+                  <c:v>57.0681404693488</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-51.0638960435805</c:v>
+                  <c:v>49.9401123215117</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-48.6686756850689</c:v>
+                  <c:v>28.8156873883789</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-44.5681699785625</c:v>
+                  <c:v>-22.471438436074</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-26.5952707011534</c:v>
+                  <c:v>-68.3768457485768</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.37845387943116</c:v>
+                  <c:v>-103.417357677113</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.0882496293437</c:v>
+                  <c:v>-70.6648126824082</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.911343694055</c:v>
+                  <c:v>-28.078448879245</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>79.7121606592937</c:v>
+                  <c:v>17.2220672650255</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>98.7277720622082</c:v>
+                  <c:v>68.58153933877649</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>121.348704911118</c:v>
+                  <c:v>110.732159492612</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>119.422367365532</c:v>
+                  <c:v>146.434430583508</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>113.418838077553</c:v>
+                  <c:v>161.791150822947</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97.71899633743089</c:v>
+                  <c:v>152.994040751186</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>101.034372893687</c:v>
+                  <c:v>131.313181016127</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>105.612552502316</c:v>
+                  <c:v>108.55619994652</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>102.824626159929</c:v>
+                  <c:v>103.334879310754</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>104.61848843188</c:v>
+                  <c:v>108.055814349782</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>88.3944945316989</c:v>
+                  <c:v>128.695272749098</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>99.7870031066406</c:v>
+                  <c:v>159.611147478597</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>96.9782929694388</c:v>
+                  <c:v>181.61843208062</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>93.3840255806715</c:v>
+                  <c:v>201.27279270745</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>70.9641541982584</c:v>
+                  <c:v>198.402462234214</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>46.5126101474935</c:v>
+                  <c:v>175.248111388292</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.0767852279639</c:v>
+                  <c:v>147.068914268835</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29.3998386869078</c:v>
+                  <c:v>109.774544867685</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>28.7583651785899</c:v>
+                  <c:v>101.834868435966</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>27.0257500359078</c:v>
+                  <c:v>96.89594856302141</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43.2615135451563</c:v>
+                  <c:v>113.979126395361</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>52.075573356455</c:v>
+                  <c:v>129.154218596716</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>52.478203651216</c:v>
+                  <c:v>142.438388924245</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>58.9621523934752</c:v>
+                  <c:v>141.956756558464</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42.4192771745476</c:v>
+                  <c:v>108.57473651672</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>21.9547145588958</c:v>
+                  <c:v>70.89852132815111</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.98696413478526</c:v>
+                  <c:v>49.9545739943599</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.542545620057012</c:v>
+                  <c:v>39.9551521172296</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>15.1374445535633</c:v>
+                  <c:v>67.637244471896</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>29.5710833680039</c:v>
+                  <c:v>94.9004638885948</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>37.5967600224652</c:v>
+                  <c:v>110.473922403924</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>46.2042776941132</c:v>
+                  <c:v>120.200404682979</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>33.2973180730841</c:v>
+                  <c:v>90.86419774466</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>22.9655601627037</c:v>
+                  <c:v>58.626151605649</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>21.1211174895066</c:v>
+                  <c:v>49.3223071285251</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>27.5734774165981</c:v>
+                  <c:v>58.7498792794674</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>32.7667106784063</c:v>
+                  <c:v>91.5433624042768</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42.9044962273546</c:v>
+                  <c:v>127.043072126109</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>49.1556443025392</c:v>
+                  <c:v>155.233174340499</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58.5672756714355</c:v>
+                  <c:v>167.311371882982</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>52.1264915717296</c:v>
+                  <c:v>159.045457338393</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43.2924690247275</c:v>
+                  <c:v>148.71383095204</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>37.9025518101824</c:v>
+                  <c:v>147.658834029143</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>46.8493188552013</c:v>
+                  <c:v>161.779297913414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2779,11 +2469,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127189976"/>
-        <c:axId val="-2112326232"/>
+        <c:axId val="-2088225000"/>
+        <c:axId val="-2088222056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127189976"/>
+        <c:axId val="-2088225000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2792,7 +2482,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112326232"/>
+        <c:crossAx val="-2088222056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2800,7 +2490,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112326232"/>
+        <c:axId val="-2088222056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2811,7 +2501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127189976"/>
+        <c:crossAx val="-2088225000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2858,440 +2548,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR04'!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VAR04realMean_c0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'VAR04'!$A$2:$A$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
-                <c:pt idx="0">
-                  <c:v>-4.82666130276204</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.4437252615643</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-25.3339692114196</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-109.096406181976</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-160.517710394507</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-192.135920563209</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-119.844643807593</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>121.741277844123</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>153.504686791659</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>226.110348282849</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>76.7784296099678</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>121.884752169142</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.9912394356057</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-93.907810066441</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-308.574308319685</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-320.871505759873</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-294.272715354776</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>109.34752325129</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>242.122273919152</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>343.798047692866</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>509.560782202352</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>528.987086078544</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>545.126298814911</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>351.909898940424</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43.9069924852776</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-141.5604629914</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-170.785982256575</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>39.1170451332749</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>165.01680665128</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>407.064382854486</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>638.342085052787</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>564.874626659</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>576.361139472128</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>147.172528377889</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-250.657035928896</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-348.83006639292</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-468.802796790691</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-18.556659195686</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>20.5682790032322</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>381.402522824471</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>396.424708573713</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>401.725644255482</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>124.411739837033</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-483.445825383933</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-500.216020546666</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-228.625937652739</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-88.5713660349444</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>447.996713591485</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>529.004609135941</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>382.327689021599</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>303.190165404535</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-431.077347599662</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-441.272729201555</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-88.88900499364991</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>194.45352859602</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>667.141686652549</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>882.406689719823</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>885.8566637442181</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>509.325806782992</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-74.5337415871344</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-131.803682139174</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>127.725860173136</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>577.577900564293</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'VAR04'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VAR04learntMean_c0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'VAR04'!$B$2:$B$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
-                <c:pt idx="0">
-                  <c:v>-15.7029136645459</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.87311945536089</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-9.88203148045171</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-51.4076502392359</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-90.4345816370294</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-122.928630073563</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-121.74567779666</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-59.1710356038801</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-11.0204032062898</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>36.1126273673686</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.7641722059946</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.0681404693488</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>49.9401123215117</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.8156873883789</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-22.471438436074</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-68.3768457485768</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-103.417357677113</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-70.6648126824082</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-28.078448879245</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17.2220672650255</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>68.58153933877649</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>110.732159492612</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>146.434430583508</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>161.791150822947</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>152.994040751186</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>131.313181016127</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>108.55619994652</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>103.334879310754</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>108.055814349782</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>128.695272749098</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>159.611147478597</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>181.61843208062</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>201.27279270745</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>198.402462234214</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>175.248111388292</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>147.068914268835</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>109.774544867685</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>101.834868435966</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>96.89594856302141</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>113.979126395361</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>129.154218596716</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>142.438388924245</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>141.956756558464</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>108.57473651672</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>70.89852132815111</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>49.9545739943599</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>39.9551521172296</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>67.637244471896</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>94.9004638885948</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>110.473922403924</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>120.200404682979</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>90.86419774466</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>58.626151605649</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>49.3223071285251</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>58.7498792794674</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>91.5433624042768</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>127.043072126109</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>155.233174340499</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>167.311371882982</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>159.045457338393</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>148.71383095204</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>147.658834029143</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>161.779297913414</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
               <c:f>'VAR04'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -3505,8 +2761,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'VAR04'!$F$1</c:f>
@@ -3731,244 +2987,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2112611560"/>
-        <c:axId val="-2112778216"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'VAR04'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>meanH-Var4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'VAR04'!$I$2:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
-                <c:pt idx="0">
-                  <c:v>12.3083718692299</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.1620831888857</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0907227115242</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.106252591905</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.1683734474897</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.2942969852279</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.2903987678944</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.9372459428685</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.6098020407608</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.3176173593015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.2418968723394</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.1083436113087</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.1411533204566</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.3100677535486</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.8694701368526</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.4338508152058</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.9010684343004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.3653872824092</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.6758635864399</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10.9328591160119</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10.1236184334024</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.47112330494611</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.98863359073078</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.78727087102467</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.937515084137759</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.29567831794047</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.72651001563854</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.82907958576185</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.711543745995639</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.310673046210569</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.67319976377528</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>8.28457901029188</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.98300685309522</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.11838548016935</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.70127428331325</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.43887654182793</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>10.505547649431</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10.7211552139706</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10.8599966616627</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10.2829878158072</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.7844472084325</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.37880964897674</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.34829492781806</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>10.5514714989944</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>11.9298336832256</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12.6911250076234</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>13.0411499921077</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12.0346891675376</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>11.0136843422211</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10.4031356408799</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9.98705255902291</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>11.1785033936686</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12.4478284696429</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12.7926062962387</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>12.3999732134294</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>11.1314767843112</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9.69824485624605</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8.55876209380075</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7.98555058998922</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>8.38410561356431</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.89649056643551</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>8.98803001224603</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>8.31039574179877</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2111943224"/>
-        <c:axId val="-2111945960"/>
+        <c:axId val="-2088551064"/>
+        <c:axId val="-2088213768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2112611560"/>
+        <c:axId val="-2088551064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3977,7 +3000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112778216"/>
+        <c:crossAx val="-2088213768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3985,7 +3008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112778216"/>
+        <c:axId val="-2088213768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3996,42 +3019,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112611560"/>
+        <c:crossAx val="-2088551064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="-2111945960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111943224"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="-2111943224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111945960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -4075,11 +3066,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR04'!$I$1</c:f>
+              <c:f>'VAR04'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>meanH-Var4</c:v>
+                  <c:v>VAR04realMean_c0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4089,198 +3080,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR04'!$I$2:$I$64</c:f>
+              <c:f>'VAR04'!$A$2:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>12.3083718692299</c:v>
+                  <c:v>-4.82666130276204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.1620831888857</c:v>
+                  <c:v>13.4437252615643</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0907227115242</c:v>
+                  <c:v>-25.3339692114196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.106252591905</c:v>
+                  <c:v>-109.096406181976</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.1683734474897</c:v>
+                  <c:v>-160.517710394507</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.2942969852279</c:v>
+                  <c:v>-192.135920563209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.2903987678944</c:v>
+                  <c:v>-119.844643807593</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.9372459428685</c:v>
+                  <c:v>121.741277844123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.6098020407608</c:v>
+                  <c:v>153.504686791659</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.3176173593015</c:v>
+                  <c:v>226.110348282849</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.2418968723394</c:v>
+                  <c:v>76.7784296099678</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.1083436113087</c:v>
+                  <c:v>121.884752169142</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.1411533204566</c:v>
+                  <c:v>9.9912394356057</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.3100677535486</c:v>
+                  <c:v>-93.907810066441</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.8694701368526</c:v>
+                  <c:v>-308.574308319685</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.4338508152058</c:v>
+                  <c:v>-320.871505759873</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.9010684343004</c:v>
+                  <c:v>-294.272715354776</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.3653872824092</c:v>
+                  <c:v>109.34752325129</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.6758635864399</c:v>
+                  <c:v>242.122273919152</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.9328591160119</c:v>
+                  <c:v>343.798047692866</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.1236184334024</c:v>
+                  <c:v>509.560782202352</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.47112330494611</c:v>
+                  <c:v>528.987086078544</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.98863359073078</c:v>
+                  <c:v>545.126298814911</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.78727087102467</c:v>
+                  <c:v>351.909898940424</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.937515084137759</c:v>
+                  <c:v>43.9069924852776</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.29567831794047</c:v>
+                  <c:v>-141.5604629914</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.72651001563854</c:v>
+                  <c:v>-170.785982256575</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.82907958576185</c:v>
+                  <c:v>39.1170451332749</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.711543745995639</c:v>
+                  <c:v>165.01680665128</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.310673046210569</c:v>
+                  <c:v>407.064382854486</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.67319976377528</c:v>
+                  <c:v>638.342085052787</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.28457901029188</c:v>
+                  <c:v>564.874626659</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.98300685309522</c:v>
+                  <c:v>576.361139472128</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.11838548016935</c:v>
+                  <c:v>147.172528377889</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.70127428331325</c:v>
+                  <c:v>-250.657035928896</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.43887654182793</c:v>
+                  <c:v>-348.83006639292</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>10.505547649431</c:v>
+                  <c:v>-468.802796790691</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10.7211552139706</c:v>
+                  <c:v>-18.556659195686</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10.8599966616627</c:v>
+                  <c:v>20.5682790032322</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10.2829878158072</c:v>
+                  <c:v>381.402522824471</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.7844472084325</c:v>
+                  <c:v>396.424708573713</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.37880964897674</c:v>
+                  <c:v>401.725644255482</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.34829492781806</c:v>
+                  <c:v>124.411739837033</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10.5514714989944</c:v>
+                  <c:v>-483.445825383933</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11.9298336832256</c:v>
+                  <c:v>-500.216020546666</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12.6911250076234</c:v>
+                  <c:v>-228.625937652739</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>13.0411499921077</c:v>
+                  <c:v>-88.5713660349444</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>12.0346891675376</c:v>
+                  <c:v>447.996713591485</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>11.0136843422211</c:v>
+                  <c:v>529.004609135941</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>10.4031356408799</c:v>
+                  <c:v>382.327689021599</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.98705255902291</c:v>
+                  <c:v>303.190165404535</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11.1785033936686</c:v>
+                  <c:v>-431.077347599662</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>12.4478284696429</c:v>
+                  <c:v>-441.272729201555</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12.7926062962387</c:v>
+                  <c:v>-88.88900499364991</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12.3999732134294</c:v>
+                  <c:v>194.45352859602</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>11.1314767843112</c:v>
+                  <c:v>667.141686652549</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.69824485624605</c:v>
+                  <c:v>882.406689719823</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.55876209380075</c:v>
+                  <c:v>885.8566637442181</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.98555058998922</c:v>
+                  <c:v>509.325806782992</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.38410561356431</c:v>
+                  <c:v>-74.5337415871344</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.89649056643551</c:v>
+                  <c:v>-131.803682139174</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.98803001224603</c:v>
+                  <c:v>127.725860173136</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.31039574179877</c:v>
+                  <c:v>577.577900564293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4292,11 +3283,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR04'!$L$1</c:f>
+              <c:f>'VAR04'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>meanH</c:v>
+                  <c:v>VAR04learntMean_c0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4306,198 +3297,632 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR04'!$L$2:$L$64</c:f>
+              <c:f>'VAR04'!$B$2:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>12.3726989223976</c:v>
+                  <c:v>-15.7029136645459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.2156563604192</c:v>
+                  <c:v>5.87311945536089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.1569275595876</c:v>
+                  <c:v>-9.88203148045171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.3891213706222</c:v>
+                  <c:v>-51.4076502392359</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.1934339715022</c:v>
+                  <c:v>-90.4345816370294</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.8071877737604</c:v>
+                  <c:v>-122.928630073563</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.5052375272723</c:v>
+                  <c:v>-121.74567779666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.9091101518198</c:v>
+                  <c:v>-59.1710356038801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.980935679152</c:v>
+                  <c:v>-11.0204032062898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.6816055077618</c:v>
+                  <c:v>36.1126273673686</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.9151363857449</c:v>
+                  <c:v>43.7641722059946</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.9335013240898</c:v>
+                  <c:v>57.0681404693488</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.3846143855808</c:v>
+                  <c:v>49.9401123215117</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.2754246637913</c:v>
+                  <c:v>28.8156873883789</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.2324482855908</c:v>
+                  <c:v>-22.471438436074</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.3658620745787</c:v>
+                  <c:v>-68.3768457485768</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.64909182575</c:v>
+                  <c:v>-103.417357677113</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.2642454682316</c:v>
+                  <c:v>-70.6648126824082</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.2731237618614</c:v>
+                  <c:v>-28.078448879245</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.7293111996038</c:v>
+                  <c:v>17.2220672650255</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.4965902073181</c:v>
+                  <c:v>68.58153933877649</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.1314541907318</c:v>
+                  <c:v>110.732159492612</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.6488584769459</c:v>
+                  <c:v>146.434430583508</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.7935037208591</c:v>
+                  <c:v>161.791150822947</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.9396517525813</c:v>
+                  <c:v>152.994040751186</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.701368016668</c:v>
+                  <c:v>131.313181016127</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.6516171582587</c:v>
+                  <c:v>108.55619994652</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21.997302657468</c:v>
+                  <c:v>103.334879310754</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21.8792648803441</c:v>
+                  <c:v>108.055814349782</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.908292010402</c:v>
+                  <c:v>128.695272749098</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>19.0606273373913</c:v>
+                  <c:v>159.611147478597</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17.33168502209</c:v>
+                  <c:v>181.61843208062</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15.4201806360577</c:v>
+                  <c:v>201.27279270745</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>14.7893620261074</c:v>
+                  <c:v>198.402462234214</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>15.4280806935145</c:v>
+                  <c:v>175.248111388292</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>16.3643643639559</c:v>
+                  <c:v>147.068914268835</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>17.7341753270264</c:v>
+                  <c:v>109.774544867685</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>17.7795935471145</c:v>
+                  <c:v>101.834868435966</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>17.7120017354655</c:v>
+                  <c:v>96.89594856302141</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>16.5172731786764</c:v>
+                  <c:v>113.979126395361</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>15.2795941745668</c:v>
+                  <c:v>129.154218596716</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14.0117324229249</c:v>
+                  <c:v>142.438388924245</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.4605369493228</c:v>
+                  <c:v>141.956756558464</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>14.7107208996299</c:v>
+                  <c:v>108.57473651672</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>16.0780074437327</c:v>
+                  <c:v>70.89852132815111</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>16.7177423758951</c:v>
+                  <c:v>49.9545739943599</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>16.9632764243311</c:v>
+                  <c:v>39.9551521172296</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>15.5893456548728</c:v>
+                  <c:v>67.637244471896</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>13.9424507511255</c:v>
+                  <c:v>94.9004638885948</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>12.7040252478966</c:v>
+                  <c:v>110.473922403924</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>11.6650592911892</c:v>
+                  <c:v>120.200404682979</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>12.7228354104843</c:v>
+                  <c:v>90.86419774466</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>13.800845331764</c:v>
+                  <c:v>58.626151605649</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>13.8616284462869</c:v>
+                  <c:v>49.3223071285251</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13.11550835432</c:v>
+                  <c:v>58.7498792794674</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>11.1010639023004</c:v>
+                  <c:v>91.5433624042768</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.48703687785423</c:v>
+                  <c:v>127.043072126109</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.84977118518818</c:v>
+                  <c:v>155.233174340499</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.14158755277318</c:v>
+                  <c:v>167.311371882982</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.01625280440002</c:v>
+                  <c:v>159.045457338393</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.08021537823991</c:v>
+                  <c:v>148.71383095204</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.49675755020335</c:v>
+                  <c:v>147.658834029143</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.67262101801802</c:v>
+                  <c:v>161.779297913414</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR04'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAR04realMean_c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR04'!$E$2:$E$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>16.178566479405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.20962241574697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.6474662896721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-39.5346450947607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>283.920864937638</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-397.578169973339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-446.482426163617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-201.47242188527</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147.41412858519</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-83.60666033592349</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-72.181977717858</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.703358393626</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-66.26910123575431</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-18.6998856997139</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.4103192353931</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.317808889076</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>165.843649611841</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>227.245527827214</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>201.165304332543</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>209.310050117643</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>214.734697751248</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>326.43813759815</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.3565954398313</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9.84709592795536</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-70.7648755053132</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>210.97034381325</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>250.592942713524</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>73.94863709338139</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>114.0936314499</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-161.873324784874</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>185.986666396321</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-33.9017749619803</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-28.7769845013585</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-241.777370442201</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-166.757243107438</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.15572367478595</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>146.342330363248</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.3452997511035</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.6342834123942</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>169.634882825853</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>94.7750909334854</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-11.7620298991867</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>148.397083802333</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.44616185478842</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-27.9204814712035</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-66.719401400273</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-25.22497852179</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51.6820690191958</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>54.1780469639811</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42.6722410233077</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>96.4940560790474</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>47.507997405625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>77.3882263636186</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43.1305338528359</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>50.5509869507235</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-99.4957313838899</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-69.4021743066268</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-96.7159267992289</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>108.581873256237</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17.4215469159164</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-13.4510568620553</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-45.939896780789</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>53.8412059526497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR04'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAR04learntMean_c1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR04'!$F$2:$F$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>2.73669247163201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.06580759684919</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.64808193367881</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-18.1254158591238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.5856030698082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-39.8283514747492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-104.190512422538</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-116.010849514161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-68.0641796699421</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-66.5500934545298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-66.1877993621062</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-48.116898145919</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-51.0638960435805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-48.6686756850689</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-44.5681699785625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-26.5952707011534</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.37845387943116</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.0882496293437</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.911343694055</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79.7121606592937</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>98.7277720622082</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>121.348704911118</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>119.422367365532</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>113.418838077553</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97.71899633743089</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>101.034372893687</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>105.612552502316</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>102.824626159929</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>104.61848843188</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>88.3944945316989</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99.7870031066406</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96.9782929694388</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>93.3840255806715</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70.9641541982584</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46.5126101474935</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0767852279639</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29.3998386869078</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28.7583651785899</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27.0257500359078</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43.2615135451563</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>52.075573356455</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>52.478203651216</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58.9621523934752</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42.4192771745476</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.9547145588958</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.98696413478526</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.542545620057012</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15.1374445535633</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29.5710833680039</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>37.5967600224652</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>46.2042776941132</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33.2973180730841</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22.9655601627037</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.1211174895066</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27.5734774165981</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>32.7667106784063</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42.9044962273546</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>49.1556443025392</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58.5672756714355</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>52.1264915717296</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43.2924690247275</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>37.9025518101824</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>46.8493188552013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4514,11 +3939,244 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2112227560"/>
-        <c:axId val="-2112404152"/>
+        <c:axId val="2129483224"/>
+        <c:axId val="2129084472"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR04'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>meanH-Var4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR04'!$I$2:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>12.3083718692299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.1620831888857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0907227115242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.106252591905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.1683734474897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.2942969852279</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.2903987678944</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.9372459428685</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.6098020407608</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.3176173593015</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.2418968723394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.1083436113087</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.1411533204566</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.3100677535486</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.8694701368526</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.4338508152058</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.9010684343004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.3653872824092</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.6758635864399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.9328591160119</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.1236184334024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.47112330494611</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.98863359073078</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.78727087102467</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.937515084137759</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.29567831794047</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.72651001563854</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.82907958576185</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.711543745995639</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.310673046210569</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.67319976377528</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.28457901029188</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.98300685309522</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.11838548016935</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.70127428331325</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.43887654182793</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.505547649431</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.7211552139706</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.8599966616627</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.2829878158072</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.7844472084325</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.37880964897674</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.34829492781806</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.5514714989944</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.9298336832256</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.6911250076234</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.0411499921077</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.0346891675376</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.0136843422211</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.4031356408799</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.98705255902291</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.1785033936686</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.4478284696429</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.7926062962387</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12.3999732134294</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.1314767843112</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.69824485624605</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.55876209380075</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.98555058998922</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.38410561356431</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.89649056643551</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.98803001224603</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.31039574179877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2129420728"/>
+        <c:axId val="-2108320584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2112227560"/>
+        <c:axId val="2129483224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4527,7 +4185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112404152"/>
+        <c:crossAx val="2129084472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4535,7 +4193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112404152"/>
+        <c:axId val="2129084472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4546,10 +4204,42 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112227560"/>
+        <c:crossAx val="2129483224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="-2108320584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2129420728"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2129420728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2108320584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -4593,11 +4283,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR07'!$I$1</c:f>
+              <c:f>'VAR04'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>meanH-Var07</c:v>
+                  <c:v>meanH-Var4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4607,198 +4297,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR07'!$I$2:$I$64</c:f>
+              <c:f>'VAR04'!$I$2:$I$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>12.323108601269</c:v>
+                  <c:v>12.3083718692299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.1852529250307</c:v>
+                  <c:v>12.1620831888857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0877105339314</c:v>
+                  <c:v>12.0907227115242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.0130685566031</c:v>
+                  <c:v>12.106252591905</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.9586589084321</c:v>
+                  <c:v>12.1683734474897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.9118162599468</c:v>
+                  <c:v>12.2942969852279</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.8665840611218</c:v>
+                  <c:v>12.2903987678944</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.8366265717731</c:v>
+                  <c:v>11.9372459428685</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.7910439663328</c:v>
+                  <c:v>11.6098020407608</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.776546497088</c:v>
+                  <c:v>11.3176173593015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.7379030808743</c:v>
+                  <c:v>11.2418968723394</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.7047500252366</c:v>
+                  <c:v>11.1083436113087</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.6668695559499</c:v>
+                  <c:v>11.1411533204566</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.6163976380479</c:v>
+                  <c:v>11.3100677535486</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.607614216873</c:v>
+                  <c:v>11.8694701368526</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.5887782758609</c:v>
+                  <c:v>12.4338508152058</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.5856865754535</c:v>
+                  <c:v>12.9010684343004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.6290663240423</c:v>
+                  <c:v>12.3653872824092</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.6484637544284</c:v>
+                  <c:v>11.6758635864399</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.6875299950599</c:v>
+                  <c:v>10.9328591160119</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.6507165768537</c:v>
+                  <c:v>10.1236184334024</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.6005897752417</c:v>
+                  <c:v>9.47112330494611</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11.4682400839145</c:v>
+                  <c:v>8.98863359073078</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>11.3263678652859</c:v>
+                  <c:v>8.78727087102467</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.3664716169683</c:v>
+                  <c:v>8.937515084137759</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>11.5096953869327</c:v>
+                  <c:v>9.29567831794047</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.7099776635796</c:v>
+                  <c:v>9.72651001563854</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11.9576119160732</c:v>
+                  <c:v>9.82907958576185</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>12.1966050637422</c:v>
+                  <c:v>9.711543745995639</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.4407072738379</c:v>
+                  <c:v>9.310673046210569</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.6589995872893</c:v>
+                  <c:v>8.67319976377528</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.8381309508413</c:v>
+                  <c:v>8.28457901029188</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.808770417317</c:v>
+                  <c:v>7.98300685309522</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.6955147592386</c:v>
+                  <c:v>8.11838548016935</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12.7574806803976</c:v>
+                  <c:v>8.70127428331325</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12.7979346153346</c:v>
+                  <c:v>9.43887654182793</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12.7583217251361</c:v>
+                  <c:v>10.505547649431</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.7405839451754</c:v>
+                  <c:v>10.7211552139706</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12.7556746380365</c:v>
+                  <c:v>10.8599966616627</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12.8374709872302</c:v>
+                  <c:v>10.2829878158072</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12.9515795557494</c:v>
+                  <c:v>9.7844472084325</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>13.1668173518909</c:v>
+                  <c:v>9.37880964897674</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.4055156065253</c:v>
+                  <c:v>9.34829492781806</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>13.7383395914394</c:v>
+                  <c:v>10.5514714989944</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>14.2027708516452</c:v>
+                  <c:v>11.9298336832256</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14.7851856587387</c:v>
+                  <c:v>12.6911250076234</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>15.3528534545702</c:v>
+                  <c:v>13.0411499921077</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>15.8676115799541</c:v>
+                  <c:v>12.0346891675376</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>16.3269749879213</c:v>
+                  <c:v>11.0136843422211</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>16.7522787154119</c:v>
+                  <c:v>10.4031356408799</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>16.9887030577462</c:v>
+                  <c:v>9.98705255902291</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>17.2320147343169</c:v>
+                  <c:v>11.1785033936686</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>17.5025864926095</c:v>
+                  <c:v>12.4478284696429</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17.9363446399603</c:v>
+                  <c:v>12.7926062962387</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>18.2026654210874</c:v>
+                  <c:v>12.3999732134294</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.4770038314062</c:v>
+                  <c:v>11.1314767843112</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>18.6835042548529</c:v>
+                  <c:v>9.69824485624605</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>18.9928142147098</c:v>
+                  <c:v>8.55876209380075</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>19.0458980044277</c:v>
+                  <c:v>7.98555058998922</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>19.2025336771232</c:v>
+                  <c:v>8.38410561356431</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>19.0659916922085</c:v>
+                  <c:v>8.89649056643551</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>19.2122260063455</c:v>
+                  <c:v>8.98803001224603</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>18.7986816558312</c:v>
+                  <c:v>8.31039574179877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4810,7 +4500,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR07'!$K$1</c:f>
+              <c:f>'VAR04'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4824,198 +4514,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR07'!$K$2:$K$64</c:f>
+              <c:f>'VAR04'!$L$2:$L$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>12.3726889735693</c:v>
+                  <c:v>12.3726989223976</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.243448125455</c:v>
+                  <c:v>12.2156563604192</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.1634112679384</c:v>
+                  <c:v>12.1569275595876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.1689175308378</c:v>
+                  <c:v>12.3891213706222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.2374622031786</c:v>
+                  <c:v>13.1934339715022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.3389596794703</c:v>
+                  <c:v>14.8071877737604</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.4406321704211</c:v>
+                  <c:v>16.5052375272723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.7297666040527</c:v>
+                  <c:v>16.9091101518198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.0895114097654</c:v>
+                  <c:v>16.980935679152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.3900600733012</c:v>
+                  <c:v>16.6816055077618</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.7162732585663</c:v>
+                  <c:v>16.9151363857449</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.2240425798031</c:v>
+                  <c:v>16.9335013240898</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.6122262290547</c:v>
+                  <c:v>17.3846143855808</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.3500964309195</c:v>
+                  <c:v>18.2754246637913</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.7386825290363</c:v>
+                  <c:v>20.2324482855908</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.1911120963936</c:v>
+                  <c:v>22.3658620745787</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.7562094579904</c:v>
+                  <c:v>24.64909182575</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.181407909429</c:v>
+                  <c:v>25.2642454682316</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.6219284150336</c:v>
+                  <c:v>25.2731237618614</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.9385144835872</c:v>
+                  <c:v>24.7293111996038</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.3763423972529</c:v>
+                  <c:v>23.4965902073181</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.8377900685998</c:v>
+                  <c:v>22.1314541907318</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.5509549000234</c:v>
+                  <c:v>20.6488584769459</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.5413305997144</c:v>
+                  <c:v>19.7935037208591</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21.9713597933506</c:v>
+                  <c:v>19.9396517525813</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.3466128327869</c:v>
+                  <c:v>20.701368016668</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24.6459439208148</c:v>
+                  <c:v>21.6516171582587</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>25.5127644101604</c:v>
+                  <c:v>21.997302657468</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26.4199692066695</c:v>
+                  <c:v>21.8792648803441</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>27.0004920393239</c:v>
+                  <c:v>20.908292010402</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>27.7725135851817</c:v>
+                  <c:v>19.0606273373913</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>28.2362653682698</c:v>
+                  <c:v>17.33168502209</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.3884301857702</c:v>
+                  <c:v>15.4201806360577</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>28.2521825908979</c:v>
+                  <c:v>14.7893620261074</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>28.2680959599202</c:v>
+                  <c:v>15.4280806935145</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>28.3359389337037</c:v>
+                  <c:v>16.3643643639559</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>28.4254706983615</c:v>
+                  <c:v>17.7341753270264</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>28.2626428655064</c:v>
+                  <c:v>17.7795935471145</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>28.0768439266006</c:v>
+                  <c:v>17.7120017354655</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>27.9299885248941</c:v>
+                  <c:v>16.5172731786764</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>27.8763257365691</c:v>
+                  <c:v>15.2795941745668</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>27.7032185407169</c:v>
+                  <c:v>14.0117324229249</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>27.6725848763032</c:v>
+                  <c:v>13.4605369493228</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>27.5230124319328</c:v>
+                  <c:v>14.7107208996299</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>27.7767971619817</c:v>
+                  <c:v>16.0780074437327</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>27.8340472701726</c:v>
+                  <c:v>16.7177423758951</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>27.8790779009139</c:v>
+                  <c:v>16.9632764243311</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>27.8969408282564</c:v>
+                  <c:v>15.5893456548728</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>27.9418834734443</c:v>
+                  <c:v>13.9424507511255</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>27.7412916178308</c:v>
+                  <c:v>12.7040252478966</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>27.8572200897566</c:v>
+                  <c:v>11.6650592911892</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>27.7076435859656</c:v>
+                  <c:v>12.7228354104843</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>27.6271029521342</c:v>
+                  <c:v>13.800845331764</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>27.4737888679494</c:v>
+                  <c:v>13.8616284462869</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>27.435591299428</c:v>
+                  <c:v>13.11550835432</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>27.2976084212744</c:v>
+                  <c:v>11.1010639023004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>27.2587281073455</c:v>
+                  <c:v>8.48703687785423</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>27.4547742616867</c:v>
+                  <c:v>5.84977118518818</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>28.0728046454174</c:v>
+                  <c:v>4.14158755277318</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>28.5832115649787</c:v>
+                  <c:v>4.01625280440002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>29.1297694652103</c:v>
+                  <c:v>4.08021537823991</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29.4838942188311</c:v>
+                  <c:v>3.49675755020335</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>29.8075963190401</c:v>
+                  <c:v>1.67262101801802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5032,11 +4722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2106825016"/>
-        <c:axId val="-2106986984"/>
+        <c:axId val="-2086130712"/>
+        <c:axId val="-2085996392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2106825016"/>
+        <c:axId val="-2086130712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5045,7 +4735,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106986984"/>
+        <c:crossAx val="-2085996392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5053,7 +4743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2106986984"/>
+        <c:axId val="-2085996392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5064,7 +4754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106825016"/>
+        <c:crossAx val="-2086130712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5111,11 +4801,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR07'!$A$1</c:f>
+              <c:f>'VAR07'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR07realMean_c0</c:v>
+                  <c:v>meanH-Var07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5125,198 +4815,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR07'!$A$2:$A$64</c:f>
+              <c:f>'VAR07'!$I$2:$I$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>8.88996081079939</c:v>
+                  <c:v>12.323108601269</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.9891568746149</c:v>
+                  <c:v>12.1852529250307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.5602800129985</c:v>
+                  <c:v>12.0877105339314</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130.803213394832</c:v>
+                  <c:v>12.0130685566031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.92054086419253</c:v>
+                  <c:v>11.9586589084321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.09402943195741</c:v>
+                  <c:v>11.9118162599468</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.7623763331507</c:v>
+                  <c:v>11.8665840611218</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-24.2286644730979</c:v>
+                  <c:v>11.8366265717731</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108.864555080305</c:v>
+                  <c:v>11.7910439663328</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-89.5692282728851</c:v>
+                  <c:v>11.776546497088</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.6413980390645</c:v>
+                  <c:v>11.7379030808743</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69.0896707238597</c:v>
+                  <c:v>11.7047500252366</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>69.7038164419921</c:v>
+                  <c:v>11.6668695559499</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>219.488300816678</c:v>
+                  <c:v>11.6163976380479</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-55.731838729169</c:v>
+                  <c:v>11.607614216873</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>59.0122416939386</c:v>
+                  <c:v>11.5887782758609</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-26.0495991941668</c:v>
+                  <c:v>11.5856865754535</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-255.411071184363</c:v>
+                  <c:v>11.6290663240423</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-155.231666029</c:v>
+                  <c:v>11.6484637544284</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-231.825069605715</c:v>
+                  <c:v>11.6875299950599</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.9134464882985</c:v>
+                  <c:v>11.6507165768537</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>88.84541809594459</c:v>
+                  <c:v>11.6005897752417</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>491.432725166657</c:v>
+                  <c:v>11.4682400839145</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>777.650067975373</c:v>
+                  <c:v>11.3263678652859</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>370.533211668558</c:v>
+                  <c:v>11.3664716169683</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>273.964240705818</c:v>
+                  <c:v>11.5096953869327</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>195.097604382833</c:v>
+                  <c:v>11.7099776635796</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-203.977354831306</c:v>
+                  <c:v>11.9576119160732</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-62.2625548215297</c:v>
+                  <c:v>12.1966050637422</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-297.906066138808</c:v>
+                  <c:v>12.4407072738379</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>66.7517009989642</c:v>
+                  <c:v>12.6589995872893</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-82.341096828731</c:v>
+                  <c:v>12.8381309508413</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20.840829854232</c:v>
+                  <c:v>12.808770417317</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-169.028713962293</c:v>
+                  <c:v>12.6955147592386</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-440.765061150063</c:v>
+                  <c:v>12.7574806803976</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-352.502560826444</c:v>
+                  <c:v>12.7979346153346</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-243.597523289441</c:v>
+                  <c:v>12.7583217251361</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-472.116385702789</c:v>
+                  <c:v>12.7405839451754</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-522.749788732453</c:v>
+                  <c:v>12.7556746380365</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-546.175981843868</c:v>
+                  <c:v>12.8374709872302</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-501.725667193254</c:v>
+                  <c:v>12.9515795557494</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-705.1177830023</c:v>
+                  <c:v>13.1668173518909</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-651.239231915472</c:v>
+                  <c:v>13.4055156065253</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-885.213773118641</c:v>
+                  <c:v>13.7383395914394</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-870.256026399039</c:v>
+                  <c:v>14.2027708516452</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1132.0076260979</c:v>
+                  <c:v>14.7851856587387</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1136.23417987711</c:v>
+                  <c:v>15.3528534545702</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1073.8027989333</c:v>
+                  <c:v>15.8676115799541</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-978.634131772189</c:v>
+                  <c:v>16.3269749879213</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-1140.824055556</c:v>
+                  <c:v>16.7522787154119</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-745.969986423204</c:v>
+                  <c:v>16.9887030577462</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-914.550099337747</c:v>
+                  <c:v>17.2320147343169</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-947.157363766629</c:v>
+                  <c:v>17.5025864926095</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1175.16671649592</c:v>
+                  <c:v>17.9363446399603</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-959.3678352442751</c:v>
+                  <c:v>18.2026654210874</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1005.03588449155</c:v>
+                  <c:v>18.4770038314062</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-896.360979235924</c:v>
+                  <c:v>18.6835042548529</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-892.080763986634</c:v>
+                  <c:v>18.9928142147098</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-435.148189011259</c:v>
+                  <c:v>19.0458980044277</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-600.784059372908</c:v>
+                  <c:v>19.2025336771232</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-248.35250497648</c:v>
+                  <c:v>19.0659916922085</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-690.221947911007</c:v>
+                  <c:v>19.2122260063455</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-8.028785057796179</c:v>
+                  <c:v>18.7986816558312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5328,11 +5018,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'VAR07'!$B$1</c:f>
+              <c:f>'VAR07'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VAR07learntMean_c0</c:v>
+                  <c:v>meanH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5342,198 +5032,198 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'VAR07'!$B$2:$B$64</c:f>
+              <c:f>'VAR07'!$K$2:$K$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>-1.49552434716781</c:v>
+                  <c:v>12.3726889735693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.5056431831787</c:v>
+                  <c:v>12.243448125455</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.0697912147447</c:v>
+                  <c:v>12.1634112679384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.3080350015842</c:v>
+                  <c:v>12.1689175308378</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.7663197975897</c:v>
+                  <c:v>12.2374622031786</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.5802566735047</c:v>
+                  <c:v>12.3389596794703</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.8290470261422</c:v>
+                  <c:v>12.4406321704211</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.4859978806477</c:v>
+                  <c:v>12.7297666040527</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.614506491518</c:v>
+                  <c:v>13.0895114097654</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.9526241386041</c:v>
+                  <c:v>13.3900600733012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.7061517966253</c:v>
+                  <c:v>13.7162732585663</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.5893793975265</c:v>
+                  <c:v>14.2240425798031</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.1745261736646</c:v>
+                  <c:v>14.6122262290547</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63.0010103937861</c:v>
+                  <c:v>15.3500964309195</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.5965326449683</c:v>
+                  <c:v>15.7386825290363</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50.0440973410984</c:v>
+                  <c:v>16.1911120963936</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.0716568721591</c:v>
+                  <c:v>16.7562094579904</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.4651481914559</c:v>
+                  <c:v>17.181407909429</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.72882043415891</c:v>
+                  <c:v>17.6219284150336</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-26.2715862074696</c:v>
+                  <c:v>17.9385144835872</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-20.7951265931205</c:v>
+                  <c:v>18.3763423972529</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-10.9813646553602</c:v>
+                  <c:v>18.8377900685998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.1281087542945</c:v>
+                  <c:v>19.5509549000234</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>82.14123007225361</c:v>
+                  <c:v>20.5413305997144</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100.973884944576</c:v>
+                  <c:v>21.9713597933506</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>110.871080616476</c:v>
+                  <c:v>23.3466128327869</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>114.759122855245</c:v>
+                  <c:v>24.6459439208148</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>94.9830367093907</c:v>
+                  <c:v>25.5127644101604</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>84.8030758790913</c:v>
+                  <c:v>26.4199692066695</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>62.0188120976522</c:v>
+                  <c:v>27.0004920393239</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>60.7096532118701</c:v>
+                  <c:v>27.7725135851817</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>52.1080077965089</c:v>
+                  <c:v>28.2362653682698</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50.867995579153</c:v>
+                  <c:v>28.3884301857702</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>41.4746606600119</c:v>
+                  <c:v>28.2521825908979</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>18.6602009754976</c:v>
+                  <c:v>28.2680959599202</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.02372885644913</c:v>
+                  <c:v>28.3359389337037</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-8.01743121117746</c:v>
+                  <c:v>28.4254706983615</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-27.1707900270412</c:v>
+                  <c:v>28.2626428655064</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-47.2523715541877</c:v>
+                  <c:v>28.0768439266006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-67.83453812120121</c:v>
+                  <c:v>27.9299885248941</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-86.0350812476357</c:v>
+                  <c:v>27.8763257365691</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-112.889832486212</c:v>
+                  <c:v>27.7032185407169</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-136.710407097549</c:v>
+                  <c:v>27.6725848763032</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-171.016097340351</c:v>
+                  <c:v>27.5230124319328</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-206.078728822234</c:v>
+                  <c:v>27.7767971619817</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-253.968929784461</c:v>
+                  <c:v>27.8340472701726</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-301.645821960785</c:v>
+                  <c:v>27.8790779009139</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-344.832046267198</c:v>
+                  <c:v>27.8969408282564</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-381.812089681129</c:v>
+                  <c:v>27.9418834734443</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-424.408673506552</c:v>
+                  <c:v>27.7412916178308</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-443.386009866455</c:v>
+                  <c:v>27.8572200897566</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-468.940097224178</c:v>
+                  <c:v>27.7076435859656</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-495.40515863468</c:v>
+                  <c:v>27.6271029521342</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-535.029027609861</c:v>
+                  <c:v>27.4737888679494</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-559.545567047858</c:v>
+                  <c:v>27.435591299428</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-585.320726783936</c:v>
+                  <c:v>27.2976084212744</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-603.646662734737</c:v>
+                  <c:v>27.2587281073455</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-624.005380411866</c:v>
+                  <c:v>27.4547742616867</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-617.813661109525</c:v>
+                  <c:v>28.0728046454174</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-621.338468920292</c:v>
+                  <c:v>28.5832115649787</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-603.329326682546</c:v>
+                  <c:v>29.1297694652103</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-610.487183033462</c:v>
+                  <c:v>29.4838942188311</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-577.8051557819909</c:v>
+                  <c:v>29.8075963190401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5550,11 +5240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2125272104"/>
-        <c:axId val="2125265272"/>
+        <c:axId val="-2138625752"/>
+        <c:axId val="-2124108760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125272104"/>
+        <c:axId val="-2138625752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5563,7 +5253,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125265272"/>
+        <c:crossAx val="-2124108760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5571,7 +5261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125265272"/>
+        <c:axId val="-2124108760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5582,7 +5272,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125272104"/>
+        <c:crossAx val="-2138625752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5629,6 +5319,524 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'VAR07'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAR07realMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR07'!$A$2:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>8.88996081079939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.9891568746149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.5602800129985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130.803213394832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.92054086419253</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.09402943195741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.7623763331507</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-24.2286644730979</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108.864555080305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-89.5692282728851</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.6413980390645</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>69.0896707238597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.7038164419921</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>219.488300816678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-55.731838729169</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>59.0122416939386</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-26.0495991941668</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-255.411071184363</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-155.231666029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-231.825069605715</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29.9134464882985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88.84541809594459</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>491.432725166657</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>777.650067975373</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>370.533211668558</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>273.964240705818</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>195.097604382833</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-203.977354831306</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-62.2625548215297</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-297.906066138808</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>66.7517009989642</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-82.341096828731</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.840829854232</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-169.028713962293</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-440.765061150063</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-352.502560826444</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-243.597523289441</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-472.116385702789</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-522.749788732453</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-546.175981843868</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-501.725667193254</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-705.1177830023</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-651.239231915472</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-885.213773118641</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-870.256026399039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1132.0076260979</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1136.23417987711</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1073.8027989333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-978.634131772189</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1140.824055556</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-745.969986423204</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-914.550099337747</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-947.157363766629</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1175.16671649592</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-959.3678352442751</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1005.03588449155</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-896.360979235924</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-892.080763986634</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-435.148189011259</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-600.784059372908</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-248.35250497648</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-690.221947911007</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-8.028785057796179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'VAR07'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VAR07learntMean_c0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'VAR07'!$B$2:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>-1.49552434716781</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5056431831787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.0697912147447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.3080350015842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.7663197975897</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.5802566735047</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.8290470261422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.4859978806477</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.614506491518</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.9526241386041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.7061517966253</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.5893793975265</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.1745261736646</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.0010103937861</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.5965326449683</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.0440973410984</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.0716568721591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.4651481914559</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.72882043415891</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-26.2715862074696</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-20.7951265931205</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-10.9813646553602</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.1281087542945</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82.14123007225361</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100.973884944576</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>110.871080616476</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>114.759122855245</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>94.9830367093907</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>84.8030758790913</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>62.0188120976522</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60.7096532118701</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52.1080077965089</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50.867995579153</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41.4746606600119</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18.6602009754976</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.02372885644913</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-8.01743121117746</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-27.1707900270412</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-47.2523715541877</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-67.83453812120121</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-86.0350812476357</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-112.889832486212</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-136.710407097549</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-171.016097340351</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-206.078728822234</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-253.968929784461</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-301.645821960785</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-344.832046267198</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-381.812089681129</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-424.408673506552</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-443.386009866455</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-468.940097224178</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-495.40515863468</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-535.029027609861</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-559.545567047858</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-585.320726783936</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-603.646662734737</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-624.005380411866</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-617.813661109525</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-621.338468920292</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-603.329326682546</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-610.487183033462</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-577.8051557819909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2124944472"/>
+        <c:axId val="-2124981016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2124944472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124981016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2124981016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124944472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'VAR07'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -6068,11 +6276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2130118968"/>
-        <c:axId val="2130122088"/>
+        <c:axId val="-2085966264"/>
+        <c:axId val="-2138449224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2130118968"/>
+        <c:axId val="-2085966264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6081,7 +6289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130122088"/>
+        <c:crossAx val="-2138449224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6089,7 +6297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130122088"/>
+        <c:axId val="-2138449224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6100,7 +6308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130118968"/>
+        <c:crossAx val="-2085966264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6126,7 +6334,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -6161,6 +6380,33 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9201930" cy="5603596"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6285,7 +6531,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6378,6 +6624,70 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Chart1"/>
+      <sheetName val="VAR01"/>
+      <sheetName val="VAR02"/>
+      <sheetName val="VAR03"/>
+      <sheetName val="VAR04"/>
+      <sheetName val="VAR07"/>
+      <sheetName val="VAR08"/>
+      <sheetName val="Variance-Residuals"/>
+      <sheetName val="Variance-Initial"/>
+      <sheetName val="Sheet7"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="1">
+        <row r="65">
+          <cell r="I65">
+            <v>7.9964154606146449</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="65">
+          <cell r="I65">
+            <v>4.101489024481042</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="65">
+          <cell r="I65">
+            <v>3.6818366912437988</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="65">
+          <cell r="I65">
+            <v>43.168580668611654</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="65">
+          <cell r="I65">
+            <v>27.171894978811409</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="65">
+          <cell r="I65">
+            <v>3.6728883562558798</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6702,10 +7012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8756,6 +9066,12 @@
       </c>
       <c r="K64">
         <v>27.963884217105399</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65">
+        <f>VAR(I2:I64)</f>
+        <v>0.41488882439870495</v>
       </c>
     </row>
   </sheetData>
@@ -8771,10 +9087,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10825,6 +11141,12 @@
       </c>
       <c r="K64">
         <v>17.698995947394401</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65">
+        <f>VAR(I2:I64)</f>
+        <v>3.74271366955896</v>
       </c>
     </row>
   </sheetData>
@@ -10839,10 +11161,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12893,6 +13215,12 @@
       </c>
       <c r="K64">
         <v>20.1611579646131</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65">
+        <f>VAR(I2:I64)</f>
+        <v>2.9359563322477404</v>
       </c>
     </row>
   </sheetData>
@@ -12907,10 +13235,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14961,6 +15289,12 @@
       </c>
       <c r="L64">
         <v>1.6726210180180201</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65">
+        <f>VAR(I2:I64)</f>
+        <v>2.2311107717523262</v>
       </c>
     </row>
   </sheetData>
@@ -14976,10 +15310,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17030,6 +17364,12 @@
       </c>
       <c r="K64">
         <v>29.807596319040101</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65">
+        <f>VAR(I2:I64)</f>
+        <v>7.1407367549311767</v>
       </c>
     </row>
   </sheetData>
@@ -17045,10 +17385,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18907,6 +19247,12 @@
       </c>
       <c r="I64">
         <v>7.6390784186323604</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65">
+        <f>VAR(I2:I64)</f>
+        <v>1.3397012209986257</v>
       </c>
     </row>
   </sheetData>

--- a/extensions/icdm2016/doc-Experiments/LocalHiddenVarsResiduals2.xlsx
+++ b/extensions/icdm2016/doc-Experiments/LocalHiddenVarsResiduals2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Variance-Residuals" sheetId="9" r:id="rId1"/>
@@ -6642,6 +6642,7 @@
       <sheetName val="Sheet7"/>
     </sheetNames>
     <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="65">
           <cell r="I65">
@@ -6684,7 +6685,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
